--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H2">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I2">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J2">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>137.7834019178604</v>
+        <v>198.6922638584076</v>
       </c>
       <c r="R2">
-        <v>1240.050617260744</v>
+        <v>1788.230374725668</v>
       </c>
       <c r="S2">
-        <v>0.002872985660129619</v>
+        <v>0.004213393567861143</v>
       </c>
       <c r="T2">
-        <v>0.00287298566012962</v>
+        <v>0.004213393567861142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H3">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I3">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J3">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>453.8634017248097</v>
+        <v>1066.692351753695</v>
       </c>
       <c r="R3">
-        <v>4084.770615523288</v>
+        <v>9600.231165783254</v>
       </c>
       <c r="S3">
-        <v>0.009463716432189507</v>
+        <v>0.02261987762627989</v>
       </c>
       <c r="T3">
-        <v>0.009463716432189507</v>
+        <v>0.02261987762627989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H4">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I4">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J4">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>228.1511670412782</v>
+        <v>565.9099600980124</v>
       </c>
       <c r="R4">
-        <v>2053.360503371503</v>
+        <v>5093.189640882112</v>
       </c>
       <c r="S4">
-        <v>0.004757285871357647</v>
+        <v>0.01200047419845544</v>
       </c>
       <c r="T4">
-        <v>0.004757285871357647</v>
+        <v>0.01200047419845544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H5">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I5">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J5">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>541.640493850271</v>
+        <v>1154.611984958345</v>
       </c>
       <c r="R5">
-        <v>4874.76444465244</v>
+        <v>10391.50786462511</v>
       </c>
       <c r="S5">
-        <v>0.01129399731837829</v>
+        <v>0.02448426836721567</v>
       </c>
       <c r="T5">
-        <v>0.01129399731837829</v>
+        <v>0.02448426836721566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I6">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J6">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>4180.893475483354</v>
+        <v>2565.305779873224</v>
       </c>
       <c r="R6">
-        <v>37628.0412793502</v>
+        <v>23087.75201885902</v>
       </c>
       <c r="S6">
-        <v>0.0871777502543732</v>
+        <v>0.05439891147557374</v>
       </c>
       <c r="T6">
-        <v>0.08717775025437323</v>
+        <v>0.05439891147557374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I7">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J7">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>13772.01105952635</v>
@@ -883,10 +883,10 @@
         <v>123948.0995357371</v>
       </c>
       <c r="S7">
-        <v>0.2871665943387975</v>
+        <v>0.2920440971776941</v>
       </c>
       <c r="T7">
-        <v>0.2871665943387975</v>
+        <v>0.2920440971776941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I8">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J8">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>6923.008957751282</v>
+        <v>7306.434902577751</v>
       </c>
       <c r="R8">
-        <v>62307.08061976154</v>
+        <v>65757.91412319976</v>
       </c>
       <c r="S8">
-        <v>0.1443548728200627</v>
+        <v>0.1549375160597859</v>
       </c>
       <c r="T8">
-        <v>0.1443548728200628</v>
+        <v>0.154937516059786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I9">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J9">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>16435.51527451896</v>
+        <v>14907.13700174697</v>
       </c>
       <c r="R9">
-        <v>147919.6374706707</v>
+        <v>134164.2330157227</v>
       </c>
       <c r="S9">
-        <v>0.3427045568862054</v>
+        <v>0.3161151518367369</v>
       </c>
       <c r="T9">
-        <v>0.3427045568862054</v>
+        <v>0.3161151518367369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H10">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I10">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J10">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>528.6716666890043</v>
+        <v>373.2499413700569</v>
       </c>
       <c r="R10">
-        <v>4758.045000201038</v>
+        <v>3359.249472330512</v>
       </c>
       <c r="S10">
-        <v>0.01102357828426828</v>
+        <v>0.007914998156615951</v>
       </c>
       <c r="T10">
-        <v>0.01102357828426828</v>
+        <v>0.007914998156615951</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H11">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I11">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J11">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>1741.463178431603</v>
+        <v>2003.816605742034</v>
       </c>
       <c r="R11">
-        <v>15673.16860588443</v>
+        <v>18034.3494516783</v>
       </c>
       <c r="S11">
-        <v>0.0363120569650356</v>
+        <v>0.04249218280498028</v>
       </c>
       <c r="T11">
-        <v>0.0363120569650356</v>
+        <v>0.04249218280498027</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H12">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I12">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J12">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>875.410652210923</v>
+        <v>1063.080440705223</v>
       </c>
       <c r="R12">
-        <v>7878.695869898308</v>
+        <v>9567.723966347008</v>
       </c>
       <c r="S12">
-        <v>0.01825359379663192</v>
+        <v>0.02254328479632369</v>
       </c>
       <c r="T12">
-        <v>0.01825359379663192</v>
+        <v>0.02254328479632369</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H13">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I13">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J13">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>2078.261812702126</v>
+        <v>2168.976523403941</v>
       </c>
       <c r="R13">
-        <v>18704.35631431913</v>
+        <v>19520.78871063547</v>
       </c>
       <c r="S13">
-        <v>0.04333480160003378</v>
+        <v>0.04599450202582855</v>
       </c>
       <c r="T13">
-        <v>0.04333480160003379</v>
+        <v>0.04599450202582854</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H14">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I14">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J14">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>6.233016872390666</v>
+        <v>0.7573321863477778</v>
       </c>
       <c r="R14">
-        <v>56.097151851516</v>
+        <v>6.81598967713</v>
       </c>
       <c r="S14">
-        <v>0.0001299675276155529</v>
+        <v>1.60597020776102E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001299675276155529</v>
+        <v>1.60597020776102E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H15">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I15">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J15">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>20.53177814841467</v>
+        <v>4.065787138495556</v>
       </c>
       <c r="R15">
-        <v>184.786003335732</v>
+        <v>36.59208424646</v>
       </c>
       <c r="S15">
-        <v>0.0004281176351889133</v>
+        <v>8.621755595797874E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004281176351889133</v>
+        <v>8.621755595797874E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H16">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I16">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J16">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>10.32105503151733</v>
+        <v>2.157013157102222</v>
       </c>
       <c r="R16">
-        <v>92.88949528365598</v>
+        <v>19.41311841392</v>
       </c>
       <c r="S16">
-        <v>0.0002152091085734342</v>
+        <v>4.574081137050665E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002152091085734342</v>
+        <v>4.574081137050666E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H17">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I17">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J17">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>24.50261998140667</v>
+        <v>4.400900175836666</v>
       </c>
       <c r="R17">
-        <v>220.52357983266</v>
+        <v>39.60810158253</v>
       </c>
       <c r="S17">
-        <v>0.000510915501158501</v>
+        <v>9.332383724251653E-05</v>
       </c>
       <c r="T17">
-        <v>0.0005109155011585009</v>
+        <v>9.332383724251653E-05</v>
       </c>
     </row>
   </sheetData>
